--- a/public/downloads/Template FIles/Customer Details report result.xlsx
+++ b/public/downloads/Template FIles/Customer Details report result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Details report result" sheetId="1" r:id="rId1"/>
@@ -2152,7 +2152,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -2164,7 +2166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
